--- a/webroot/lists/Lista.xlsx
+++ b/webroot/lists/Lista.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
